--- a/data_year/zb/工业/按行业分大中型工业企业主要经济指标(2000-2002)/销售费用.xlsx
+++ b/data_year/zb/工业/按行业分大中型工业企业主要经济指标(2000-2002)/销售费用.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,387 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>44.73596</v>
-      </c>
-      <c r="C2" t="n">
-        <v>109.89659</v>
-      </c>
-      <c r="D2" t="n">
-        <v>15.93748</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.0005999999999999999</v>
-      </c>
-      <c r="F2" t="n">
-        <v>4.41469</v>
-      </c>
-      <c r="G2" t="n">
-        <v>152.60488</v>
-      </c>
-      <c r="H2" t="n">
-        <v>11.18995</v>
-      </c>
-      <c r="I2" t="n">
-        <v>178.31966</v>
-      </c>
-      <c r="J2" t="n">
-        <v>5.75563</v>
-      </c>
-      <c r="K2" t="n">
-        <v>15.37348</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1717.38005</v>
-      </c>
-      <c r="M2" t="n">
-        <v>3.00587</v>
-      </c>
-      <c r="N2" t="n">
-        <v>4.54173</v>
-      </c>
-      <c r="O2" t="n">
-        <v>66.20480999999999</v>
-      </c>
-      <c r="P2" t="n">
-        <v>18.80873</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>3.80435</v>
-      </c>
-      <c r="R2" t="n">
-        <v>21.34722</v>
-      </c>
-      <c r="S2" t="n">
-        <v>5.61401</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1.22813</v>
-      </c>
-      <c r="U2" t="n">
-        <v>17.36693</v>
-      </c>
-      <c r="V2" t="n">
-        <v>11.82814</v>
-      </c>
-      <c r="W2" t="n">
-        <v>7.80373</v>
-      </c>
-      <c r="X2" t="n">
-        <v>70.95223</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>9.29482</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>168.30598</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>194.09121</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>6.57416</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>28.89797</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>7.53545</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>38.35096</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>7.84007</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>24.68136</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>28.19631</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>74.20789000000001</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>9.81772</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>68.99881000000001</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>47.20562</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>162.04953</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>60.89056</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>3.97981</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>45.77474</v>
-      </c>
-      <c r="C3" t="n">
-        <v>133.09105</v>
-      </c>
-      <c r="D3" t="n">
-        <v>20.30908</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.00266</v>
-      </c>
-      <c r="F3" t="n">
-        <v>7.87707</v>
-      </c>
-      <c r="G3" t="n">
-        <v>189.01134</v>
-      </c>
-      <c r="H3" t="n">
-        <v>10.43059</v>
-      </c>
-      <c r="I3" t="n">
-        <v>218.0905</v>
-      </c>
-      <c r="J3" t="n">
-        <v>7.34886</v>
-      </c>
-      <c r="K3" t="n">
-        <v>21.14806</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2202.52404</v>
-      </c>
-      <c r="M3" t="n">
-        <v>4.59701</v>
-      </c>
-      <c r="N3" t="n">
-        <v>4.75761</v>
-      </c>
-      <c r="O3" t="n">
-        <v>76.93107999999999</v>
-      </c>
-      <c r="P3" t="n">
-        <v>24.00067</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>5.07311</v>
-      </c>
-      <c r="R3" t="n">
-        <v>25.83891</v>
-      </c>
-      <c r="S3" t="n">
-        <v>5.9413</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1.56094</v>
-      </c>
-      <c r="U3" t="n">
-        <v>21.71528</v>
-      </c>
-      <c r="V3" t="n">
-        <v>60.61578</v>
-      </c>
-      <c r="W3" t="n">
-        <v>7.91575</v>
-      </c>
-      <c r="X3" t="n">
-        <v>109.32466</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>16.57877</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>270.20552</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>225.35243</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>8.72012</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>33.41707</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>26.97383</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>44.93592</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>9.05134</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>36.11932</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>39.64076</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>81.73179</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>12.17923</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>91.28182</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>58.10435</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>175.87442</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>62.93504</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>4.08256</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>57.70127</v>
-      </c>
-      <c r="C4" t="n">
-        <v>187.95172</v>
-      </c>
-      <c r="D4" t="n">
-        <v>22.55795</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.00025</v>
-      </c>
-      <c r="F4" t="n">
-        <v>6.97464</v>
-      </c>
-      <c r="G4" t="n">
-        <v>224.45415</v>
-      </c>
-      <c r="H4" t="n">
-        <v>13.21141</v>
-      </c>
-      <c r="I4" t="n">
-        <v>252.25649</v>
-      </c>
-      <c r="J4" t="n">
-        <v>7.34602</v>
-      </c>
-      <c r="K4" t="n">
-        <v>23.65586</v>
-      </c>
-      <c r="L4" t="n">
-        <v>2505.09813</v>
-      </c>
-      <c r="M4" t="n">
-        <v>4.47183</v>
-      </c>
-      <c r="N4" t="n">
-        <v>6.92337</v>
-      </c>
-      <c r="O4" t="n">
-        <v>94.38536000000001</v>
-      </c>
-      <c r="P4" t="n">
-        <v>27.78847</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>4.63015</v>
-      </c>
-      <c r="R4" t="n">
-        <v>30.88438</v>
-      </c>
-      <c r="S4" t="n">
-        <v>9.420780000000001</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.75612</v>
-      </c>
-      <c r="U4" t="n">
-        <v>24.45949</v>
-      </c>
-      <c r="V4" t="n">
-        <v>64.15351</v>
-      </c>
-      <c r="W4" t="n">
-        <v>8.696619999999999</v>
-      </c>
-      <c r="X4" t="n">
-        <v>119.98731</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>17.86574</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>316.48695</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>231.83478</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>8.97024</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>35.43722</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>19.83532</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>46.08515</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>10.92719</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>38.43115</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>38.06222</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>84.49269</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>14.19561</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>115.98516</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>61.2143</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>194.15903</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>70.24878</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>2.53032</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
